--- a/data/trans_camb/P40_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P40_R2-Habitat-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>1.175681864827716</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>2.66034385041195</v>
+        <v>2.660343850411945</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.356563713911523</v>
@@ -664,7 +664,7 @@
         <v>0.4192280409019977</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>4.181633493322007</v>
+        <v>4.181633493322012</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.506195220260043</v>
+        <v>-3.315792634005776</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.407125361602448</v>
+        <v>-4.331238787330165</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9334014601025689</v>
+        <v>1.109670866724273</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.002619783488963</v>
+        <v>-4.648014527895739</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.009497103938962</v>
+        <v>-3.47803857466236</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.258215158177313</v>
+        <v>-1.33399412891425</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.735092712634599</v>
+        <v>-2.996225373161182</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.783838506310233</v>
+        <v>-2.58617422678255</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.369715830203845</v>
+        <v>1.127287278983583</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.101434706027712</v>
+        <v>5.011031397411447</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.840178108989707</v>
+        <v>3.601218428725429</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.553368190512805</v>
+        <v>9.698489490675851</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.834396442520806</v>
+        <v>4.376953671594879</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.814245462838958</v>
+        <v>6.625284344452923</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.99267343048683</v>
+        <v>7.436323093585309</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.501552435809288</v>
+        <v>3.420999679763525</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.497074772908901</v>
+        <v>3.507718285725561</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>7.362216534472339</v>
+        <v>6.917923928563524</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.0421472742418196</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09537124386730396</v>
+        <v>0.09537124386730375</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.01568711185894426</v>
@@ -769,7 +769,7 @@
         <v>0.01844404496433861</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.1839720358620885</v>
+        <v>0.1839720358620887</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1770460143567068</v>
+        <v>-0.170656016036148</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2230633953036761</v>
+        <v>-0.221552767866685</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.04736844495639496</v>
+        <v>0.05666058970012496</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1631460237753747</v>
+        <v>-0.1561579843988462</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1288654184986939</v>
+        <v>-0.1163910758881362</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.04167677066616213</v>
+        <v>-0.04299439634676324</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1145673688958052</v>
+        <v>-0.1208675639918256</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1135579075351667</v>
+        <v>-0.1079406591902268</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.05350792920608462</v>
+        <v>0.04438130075860384</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3077180728427337</v>
+        <v>0.3193209252827141</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2480836676723006</v>
+        <v>0.2218268519597591</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.5996957470695775</v>
+        <v>0.6124351088207998</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.189161388807266</v>
+        <v>0.1745044922395087</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2293722666224286</v>
+        <v>0.2510933364783858</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2730127363643657</v>
+        <v>0.2917961193405914</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1614540280304243</v>
+        <v>0.1627355670380116</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1663334440030683</v>
+        <v>0.1673058100894436</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.3368256748304721</v>
+        <v>0.3258324916095022</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-7.929977930889989</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-5.010061722562892</v>
+        <v>-5.010061722562886</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-2.559851751669901</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.373170512676366</v>
+        <v>-2.519024795252996</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.212403535505563</v>
+        <v>-3.055743992099814</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.624150452155586</v>
+        <v>-2.583726509685516</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-9.947474812960582</v>
+        <v>-10.33799061613673</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-12.23668912349975</v>
+        <v>-11.83283722805053</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-8.879421781504091</v>
+        <v>-8.79877390565192</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-5.252294882849291</v>
+        <v>-5.168240988838649</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-6.517941707951083</v>
+        <v>-6.972751112071513</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-4.62672230570768</v>
+        <v>-4.797996437606415</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.388467079675757</v>
+        <v>4.153700439771558</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.309148315121274</v>
+        <v>3.220987323627442</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.075553456033825</v>
+        <v>3.866678471117354</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.696126457895499</v>
+        <v>-1.86963712512541</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-3.409190769740485</v>
+        <v>-3.399270435628651</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-0.8133043420147396</v>
+        <v>-1.073141916532108</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3648911142801133</v>
+        <v>0.1680853472819515</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.9680873751907833</v>
+        <v>-1.436241285719565</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4013744243515155</v>
+        <v>0.2572292868961925</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.2438502044081504</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.1540615353272866</v>
+        <v>-0.1540615353272864</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.1067078411985809</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1420270662085719</v>
+        <v>-0.149067596508313</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1841219955683589</v>
+        <v>-0.1772381359749809</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1504247583788538</v>
+        <v>-0.1432818568286676</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2884287120410252</v>
+        <v>-0.2990377473324457</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.352985114259007</v>
+        <v>-0.3426282697973468</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2554833467617748</v>
+        <v>-0.2503454274799516</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2075831081265835</v>
+        <v>-0.2056529482824032</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2582131888710433</v>
+        <v>-0.2727462971295597</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1818350747862078</v>
+        <v>-0.1879727774229974</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3166854883263016</v>
+        <v>0.3032679537428782</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2480223826955635</v>
+        <v>0.2370297751918931</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.3037776745730557</v>
+        <v>0.2791043773188414</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.0588545092046966</v>
+        <v>-0.06138543925135035</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1205442740425749</v>
+        <v>-0.1139742677544058</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.02772498453295225</v>
+        <v>-0.03547164120779978</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01473696286160623</v>
+        <v>0.007094961643855231</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.0449769747943459</v>
+        <v>-0.06485368964763259</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.01931094079192333</v>
+        <v>0.01072685616004972</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.4132139654670935</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2.460879146210898</v>
+        <v>2.460879146210901</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>2.281052413676771</v>
@@ -1092,7 +1092,7 @@
         <v>-0.9514530575664343</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>1.273828922252759</v>
+        <v>1.273828922252757</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.353078041672677</v>
+        <v>-3.480238538812935</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.494625292946381</v>
+        <v>-3.676196328561624</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.511551939173812</v>
+        <v>-1.379003663303939</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.448870323330417</v>
+        <v>-2.14709448103268</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-6.893011400859045</v>
+        <v>-6.883841231609154</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-4.17856195527836</v>
+        <v>-4.158056830127848</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.44746316371048</v>
+        <v>-1.604785315546475</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.725048746978479</v>
+        <v>-4.117322906037792</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.780923341973472</v>
+        <v>-1.699289242160069</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.643392699679688</v>
+        <v>4.513115961506168</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.528986138144464</v>
+        <v>4.17166913007007</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.705034319184286</v>
+        <v>6.646617226583923</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.926785936589887</v>
+        <v>7.027457697018375</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.742738484767304</v>
+        <v>2.163097107260716</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.59288148466345</v>
+        <v>4.41186951891522</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.655755164340842</v>
+        <v>4.613055144788093</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.30348806869332</v>
+        <v>2.078542041678506</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.208596735680553</v>
+        <v>4.136145861826613</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.02728919173533609</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.1625196834345312</v>
+        <v>0.1625196834345314</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.09326567098991918</v>
@@ -1197,7 +1197,7 @@
         <v>-0.04801636678971238</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.06428550128860325</v>
+        <v>0.06428550128860311</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2041711412470896</v>
+        <v>-0.2055765995008546</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2026892644860845</v>
+        <v>-0.213135746499898</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.08262043161250973</v>
+        <v>-0.08118609504777921</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.0924078968817821</v>
+        <v>-0.08062482720844698</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2583713379754017</v>
+        <v>-0.2634760638927907</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1570198879172555</v>
+        <v>-0.1517298310466907</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.07073151773143797</v>
+        <v>-0.07417651580070873</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.17858792663642</v>
+        <v>-0.188595112343124</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.08441679032579769</v>
+        <v>-0.08032129166401795</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3622282531935679</v>
+        <v>0.3497211000877435</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3621682844997064</v>
+        <v>0.3349444403912684</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.5145936070007775</v>
+        <v>0.5237058766092005</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.3143697259531453</v>
+        <v>0.3163488476677015</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.0776742575553456</v>
+        <v>0.09106036699851118</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2121354559096987</v>
+        <v>0.1986114223883617</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2578081629369804</v>
+        <v>0.2488193402769911</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1266473970566462</v>
+        <v>0.1162885640203892</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.2275413583816414</v>
+        <v>0.2322379559100772</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-0.09223637931008166</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3.139948037225729</v>
+        <v>3.139948037225731</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-0.6997251523504833</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.016003808627113</v>
+        <v>-2.06618028006633</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.435228354134741</v>
+        <v>-3.504909365613783</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.471436705359464</v>
+        <v>-0.2607053790263152</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.647658014558416</v>
+        <v>-4.627738359941658</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-6.75729737673162</v>
+        <v>-6.529670972471269</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-3.573246390480445</v>
+        <v>-3.560144366353646</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.584186234226977</v>
+        <v>-2.576287612770308</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-3.971640475047548</v>
+        <v>-3.943775431898692</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.177432379849655</v>
+        <v>-0.888915837443539</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.643228027986427</v>
+        <v>4.963575676097224</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.1146348463768</v>
+        <v>2.819683690067024</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.587714825229822</v>
+        <v>6.282540812239287</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.965569107010659</v>
+        <v>3.235140345182752</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.706606630726311</v>
+        <v>1.378680430020244</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.642375812838748</v>
+        <v>3.707316507091384</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.810221355466794</v>
+        <v>3.171577346106456</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.418678553134098</v>
+        <v>1.336439845443887</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.998093103863227</v>
+        <v>4.065296910081556</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.005782331482667865</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.1968444612136568</v>
+        <v>0.1968444612136569</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.02513355103198085</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1126749540701433</v>
+        <v>-0.1171123501578569</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1915047040972765</v>
+        <v>-0.2009388143672871</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.03058099695792333</v>
+        <v>-0.01543778415871611</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1593152293749114</v>
+        <v>-0.1511007852612786</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2268362270299281</v>
+        <v>-0.2201216040755559</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1178188893357348</v>
+        <v>-0.1174860657352004</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1121664861318823</v>
+        <v>-0.1100602756224301</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1716558997296908</v>
+        <v>-0.1635083952366031</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.05044843913064301</v>
+        <v>-0.04103099037310252</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3225108582495485</v>
+        <v>0.3553194743979352</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2141350888826428</v>
+        <v>0.1950930197778494</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.4557580958950292</v>
+        <v>0.4315696980804026</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1159183480790846</v>
+        <v>0.1254912432370175</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.0666241870205239</v>
+        <v>0.04977586360764851</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1429966892652292</v>
+        <v>0.1476114373221713</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1311761743251149</v>
+        <v>0.1487402135738449</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.06935922836776001</v>
+        <v>0.06566601867148936</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.1892713357395648</v>
+        <v>0.1931463083874466</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.8914713927311002</v>
+        <v>-0.6843529292768167</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.760501743386162</v>
+        <v>-1.834226969289809</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.9154125275958738</v>
+        <v>0.7473865882637459</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.796622360358629</v>
+        <v>-3.713749422863734</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-5.495842349595098</v>
+        <v>-5.715907040501459</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-3.03801188426237</v>
+        <v>-3.170232681927631</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.825778004775704</v>
+        <v>-1.944754091686522</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-3.163975933567037</v>
+        <v>-3.186013814407793</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.5377705363798584</v>
+        <v>-0.5579760717311144</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.722628221167106</v>
+        <v>2.888640854896183</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.733765694984461</v>
+        <v>1.67052475818135</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.637442914877277</v>
+        <v>4.593148181167865</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.6465729781685668</v>
+        <v>0.6925702741390051</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-1.222687269093443</v>
+        <v>-1.183175074588782</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.045504166644388</v>
+        <v>0.8726345974158618</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.014184268480777</v>
+        <v>1.133221857841843</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.3508442115570067</v>
+        <v>-0.2934912833438588</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.267265888717215</v>
+        <v>2.278630119568911</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.05341750569689874</v>
+        <v>-0.04189466764617766</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1049901594508982</v>
+        <v>-0.1065944983199395</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.05437941690908416</v>
+        <v>0.04471392613172714</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1272229724088542</v>
+        <v>-0.1244541322868652</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1873434042707132</v>
+        <v>-0.193058163248279</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1014436992775376</v>
+        <v>-0.1066809130048933</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.08032688940341778</v>
+        <v>-0.08440431398286971</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1385267202314794</v>
+        <v>-0.1376029724026737</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.02245475097185204</v>
+        <v>-0.02417523647823836</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1788961915807888</v>
+        <v>0.18913034193244</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1120905460601596</v>
+        <v>0.1094579758080438</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.3057519489909717</v>
+        <v>0.3041698635184857</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.02264507144609376</v>
+        <v>0.02689979919606499</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.04636960621960532</v>
+        <v>-0.04481757349698404</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.03782190894347986</v>
+        <v>0.03211605878497458</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.04699839066712677</v>
+        <v>0.05251560653524172</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.01655775429077338</v>
+        <v>-0.01341921240016025</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.1051694068995099</v>
+        <v>0.1031442440740555</v>
       </c>
     </row>
     <row r="34">
